--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-20T13:41:55+00:00</t>
+    <t>2025-02-26T13:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-26T13:21:21+00:00</t>
+    <t>2025-03-21T10:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-21T10:35:33+00:00</t>
+    <t>2025-03-21T10:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-21T10:58:46+00:00</t>
+    <t>2025-03-21T11:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-21T11:15:59+00:00</t>
+    <t>2025-03-21T11:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-21T11:26:13+00:00</t>
+    <t>2025-03-24T06:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T06:22:27+00:00</t>
+    <t>2025-03-24T09:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T09:01:33+00:00</t>
+    <t>2025-03-24T11:46:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T11:46:28+00:00</t>
+    <t>2025-03-25T12:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T12:40:24+00:00</t>
+    <t>2025-03-25T12:51:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T12:51:17+00:00</t>
+    <t>2025-03-26T06:16:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T06:16:28+00:00</t>
+    <t>2025-03-26T06:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T06:25:27+00:00</t>
+    <t>2025-03-26T07:23:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethod.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T07:23:44+00:00</t>
+    <t>2025-05-13T11:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
